--- a/similarities/split_global/harmonic_similarity_timestamps_14.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,682 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:40.640000', '0:00:44.840000')]</t>
+          <t>('0:00:12.140000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:32.200000', '0:00:38.620000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=40.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Db', 'Ab:7', 'Db']]</t>
+          <t>['D/5', 'A', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['F#/5', 'C#', 'F#/5']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000'), ('0:00:47.340000', '0:00:50.710000')]</t>
+          <t>('0:00:12.743000', '0:00:16.216000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000'), ('0:04:12.800000', '0:04:14.460000')]</t>
+          <t>('0:01:00.391566', '0:02:07.006105')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77', 'https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=47.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=252.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=60.391566</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:08.800000')]</t>
+          <t>('0:01:23.460000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=0.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
+          <t>isophonics_232</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['G#/C', 'D#', 'G#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.656213', '0:00:04.461483')]</t>
+          <t>('0:00:18.071496', '0:00:23.725555')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:00:51.380000', '0:00:55.820000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-39#t=0.656213']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=18.071496</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=51.38</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min7/4', 'E:7', 'A']]</t>
+          <t>['C', 'G/3', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:47.371000', '0:00:50.945000')]</t>
+          <t>('0:00:41.655000', '0:00:46.220000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:22.680000', '0:00:26.280000')]</t>
+          <t>('0:00:42.900000', '0:00:45.160000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=47.371']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=22.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E/3', 'A', 'E/5', 'B']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:28.395907', '0:00:32.322199')]</t>
+          <t>('0:00:10.820000', '0:00:22.920000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+          <t>('0:00:01.560000', '0:00:09.740000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=28.395907']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#']]</t>
+          <t>['F:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['Db:maj', 'Eb:7', 'Ab:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:59.100000', '0:01:09')]</t>
+          <t>('0:00:30.420000', '0:00:37.040000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:05.860000', '0:00:23.820000')]</t>
+          <t>('0:00:24.398000', '0:00:28.578000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=59.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=30.42</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=5.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=24.398</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:min', 'D:7', 'G']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:7/C#', 'D:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:56.943000', '0:01:03.992000')]</t>
+          <t>('0:00:18.060000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:11.600000', '0:00:17.420000')]</t>
+          <t>('0:00:08.700000', '0:00:32.100000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=56.943']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=11.6']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:29.100000', '0:00:45.980000')]</t>
+          <t>('0:00:00.360000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
+          <t>('0:00:12.824000', '0:00:20.865000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=29.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.22']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>['Bb:7', 'Eb/5', 'Bb:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:26.140430')]</t>
+          <t>('0:04:15.633000', '0:04:18.257000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+          <t>('0:01:12.420000', '0:01:15.580000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=255.633</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=72.42</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:05.146000', '0:00:09.474000')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:01.460000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=5.146']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.560000', '0:00:04.260000')]</t>
+          <t>('0:00:02.640000', '0:00:07.300000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:36.732085', '0:00:41.248366')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=0.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=36.732085']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/b7']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:34.041000', '0:00:38.588000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:03:36.280000', '0:03:44.400000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=34.041']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=216.28']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['C', 'F', 'C', 'G']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:40.095623')]</t>
+          <t>('0:00:52.740000', '0:01:04.440000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:01:43.520929', '0:01:49.476848')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:min/C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['D:maj/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:33.440000', '0:01:38.780000'), ('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:00:35.600000', '0:00:37.240000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:20.160000', '0:01:26.120000'), ('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:00:52.420000', '0:01:01.260000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=93.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=35.6</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=80.16', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=52.42</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
